--- a/tests/Templates/GroupTagTests_FormulasInGroupRow.xlsx
+++ b/tests/Templates/GroupTagTests_FormulasInGroupRow.xlsx
@@ -293,12 +293,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -308,6 +302,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -862,30 +862,30 @@
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
